--- a/data_excel/55.xlsx
+++ b/data_excel/55.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\AI\project2_extension\example_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA39245-7F21-41CB-8C3D-21174905DD8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="600" windowWidth="8080" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="600" windowWidth="8085" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,14 +128,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
+    <t>大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,16 +475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -545,7 +544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -565,7 +564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -585,7 +584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -605,7 +604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -619,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -630,7 +629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -641,7 +640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -652,7 +651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -663,7 +662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -674,7 +673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -685,7 +684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -696,7 +695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
